--- a/Data/matched_orgs_k4kreview.xlsx
+++ b/Data/matched_orgs_k4kreview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/carlos_fabbrigarcia_mail_mcgill_ca/Documents/Summer Term 2022/Community Capstone/Kurling4Kids/dataset_merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/carlos_fabbrigarcia_mail_mcgill_ca/Documents/Summer Term 2022/Community Capstone/Kurling4Kids/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{36E42600-09A6-4E33-B960-AFD22A040115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C40FB84-DBBE-4EC8-9C70-E97936DFB4A8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{36E42600-09A6-4E33-B960-AFD22A040115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B71E44-603F-49D0-A47C-B31455D60592}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4236,20 +4236,20 @@
       <selection activeCell="B4" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>359</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4301,14 +4301,14 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>+IF(G2=1,"MATCH",IF(G2=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" ref="H2:H33" si="0">+IF(G2=1,"MATCH",IF(G2=2,"VERIFY","NO MATCH"))</f>
         <v>MATCH</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -4331,14 +4331,14 @@
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <f>+IF(G3=1,"MATCH",IF(G3=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4361,14 +4361,14 @@
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <f>+IF(G4=1,"MATCH",IF(G4=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4391,12 +4391,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="str">
-        <f>+IF(G5=1,"MATCH",IF(G5=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4419,12 +4419,12 @@
         <v>1</v>
       </c>
       <c r="H6" t="str">
-        <f>+IF(G6=1,"MATCH",IF(G6=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -4447,12 +4447,12 @@
         <v>1</v>
       </c>
       <c r="H7" t="str">
-        <f>+IF(G7=1,"MATCH",IF(G7=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -4475,12 +4475,12 @@
         <v>1</v>
       </c>
       <c r="H8" t="str">
-        <f>+IF(G8=1,"MATCH",IF(G8=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -4503,12 +4503,12 @@
         <v>1</v>
       </c>
       <c r="H9" t="str">
-        <f>+IF(G9=1,"MATCH",IF(G9=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -4531,12 +4531,12 @@
         <v>1</v>
       </c>
       <c r="H10" t="str">
-        <f>+IF(G10=1,"MATCH",IF(G10=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -4559,12 +4559,12 @@
         <v>1</v>
       </c>
       <c r="H11" t="str">
-        <f>+IF(G11=1,"MATCH",IF(G11=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -4587,12 +4587,12 @@
         <v>1</v>
       </c>
       <c r="H12" t="str">
-        <f>+IF(G12=1,"MATCH",IF(G12=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -4615,12 +4615,12 @@
         <v>1</v>
       </c>
       <c r="H13" t="str">
-        <f>+IF(G13=1,"MATCH",IF(G13=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -4643,12 +4643,12 @@
         <v>1</v>
       </c>
       <c r="H14" t="str">
-        <f>+IF(G14=1,"MATCH",IF(G14=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -4671,12 +4671,12 @@
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <f>+IF(G15=1,"MATCH",IF(G15=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -4699,12 +4699,12 @@
         <v>1</v>
       </c>
       <c r="H16" t="str">
-        <f>+IF(G16=1,"MATCH",IF(G16=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -4727,12 +4727,12 @@
         <v>1</v>
       </c>
       <c r="H17" t="str">
-        <f>+IF(G17=1,"MATCH",IF(G17=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -4755,12 +4755,12 @@
         <v>1</v>
       </c>
       <c r="H18" t="str">
-        <f>+IF(G18=1,"MATCH",IF(G18=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -4783,12 +4783,12 @@
         <v>1</v>
       </c>
       <c r="H19" t="str">
-        <f>+IF(G19=1,"MATCH",IF(G19=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>242</v>
       </c>
@@ -4811,12 +4811,12 @@
         <v>1</v>
       </c>
       <c r="H20" t="str">
-        <f>+IF(G20=1,"MATCH",IF(G20=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -4839,12 +4839,12 @@
         <v>1</v>
       </c>
       <c r="H21" t="str">
-        <f>+IF(G21=1,"MATCH",IF(G21=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>287</v>
       </c>
@@ -4867,12 +4867,12 @@
         <v>1</v>
       </c>
       <c r="H22" t="str">
-        <f>+IF(G22=1,"MATCH",IF(G22=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>257</v>
       </c>
@@ -4895,12 +4895,12 @@
         <v>1</v>
       </c>
       <c r="H23" t="str">
-        <f>+IF(G23=1,"MATCH",IF(G23=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>305</v>
       </c>
@@ -4923,12 +4923,12 @@
         <v>1</v>
       </c>
       <c r="H24" t="str">
-        <f>+IF(G24=1,"MATCH",IF(G24=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -4951,12 +4951,12 @@
         <v>1</v>
       </c>
       <c r="H25" t="str">
-        <f>+IF(G25=1,"MATCH",IF(G25=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -4979,12 +4979,12 @@
         <v>1</v>
       </c>
       <c r="H26" t="str">
-        <f>+IF(G26=1,"MATCH",IF(G26=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>325</v>
       </c>
@@ -5007,11 +5007,11 @@
         <v>1</v>
       </c>
       <c r="H27" t="str">
-        <f>+IF(G27=1,"MATCH",IF(G27=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>326</v>
       </c>
@@ -5034,11 +5034,11 @@
         <v>1</v>
       </c>
       <c r="H28" t="str">
-        <f>+IF(G28=1,"MATCH",IF(G28=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -5061,11 +5061,11 @@
         <v>1</v>
       </c>
       <c r="H29" t="str">
-        <f>+IF(G29=1,"MATCH",IF(G29=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>327</v>
       </c>
@@ -5088,11 +5088,11 @@
         <v>1</v>
       </c>
       <c r="H30" t="str">
-        <f>+IF(G30=1,"MATCH",IF(G30=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>328</v>
       </c>
@@ -5115,11 +5115,11 @@
         <v>1</v>
       </c>
       <c r="H31" t="str">
-        <f>+IF(G31=1,"MATCH",IF(G31=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>255</v>
       </c>
@@ -5142,11 +5142,11 @@
         <v>1</v>
       </c>
       <c r="H32" t="str">
-        <f>+IF(G32=1,"MATCH",IF(G32=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -5169,11 +5169,11 @@
         <v>1</v>
       </c>
       <c r="H33" t="str">
-        <f>+IF(G33=1,"MATCH",IF(G33=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="0"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -5196,11 +5196,11 @@
         <v>1</v>
       </c>
       <c r="H34" t="str">
-        <f>+IF(G34=1,"MATCH",IF(G34=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" ref="H34:H65" si="1">+IF(G34=1,"MATCH",IF(G34=2,"VERIFY","NO MATCH"))</f>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -5223,11 +5223,11 @@
         <v>1</v>
       </c>
       <c r="H35" t="str">
-        <f>+IF(G35=1,"MATCH",IF(G35=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>322</v>
       </c>
@@ -5250,11 +5250,11 @@
         <v>1</v>
       </c>
       <c r="H36" t="str">
-        <f>+IF(G36=1,"MATCH",IF(G36=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>253</v>
       </c>
@@ -5277,11 +5277,11 @@
         <v>1</v>
       </c>
       <c r="H37" t="str">
-        <f>+IF(G37=1,"MATCH",IF(G37=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>271</v>
       </c>
@@ -5304,11 +5304,11 @@
         <v>1</v>
       </c>
       <c r="H38" t="str">
-        <f>+IF(G38=1,"MATCH",IF(G38=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -5331,11 +5331,11 @@
         <v>1</v>
       </c>
       <c r="H39" t="str">
-        <f>+IF(G39=1,"MATCH",IF(G39=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -5358,11 +5358,11 @@
         <v>1</v>
       </c>
       <c r="H40" t="str">
-        <f>+IF(G40=1,"MATCH",IF(G40=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -5385,11 +5385,11 @@
         <v>1</v>
       </c>
       <c r="H41" t="str">
-        <f>+IF(G41=1,"MATCH",IF(G41=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -5412,11 +5412,11 @@
         <v>1</v>
       </c>
       <c r="H42" t="str">
-        <f>+IF(G42=1,"MATCH",IF(G42=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -5439,11 +5439,11 @@
         <v>1</v>
       </c>
       <c r="H43" t="str">
-        <f>+IF(G43=1,"MATCH",IF(G43=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -5466,11 +5466,11 @@
         <v>1</v>
       </c>
       <c r="H44" t="str">
-        <f>+IF(G44=1,"MATCH",IF(G44=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>307</v>
       </c>
@@ -5493,11 +5493,11 @@
         <v>1</v>
       </c>
       <c r="H45" t="str">
-        <f>+IF(G45=1,"MATCH",IF(G45=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -5520,11 +5520,11 @@
         <v>1</v>
       </c>
       <c r="H46" t="str">
-        <f>+IF(G46=1,"MATCH",IF(G46=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -5547,11 +5547,11 @@
         <v>1</v>
       </c>
       <c r="H47" t="str">
-        <f>+IF(G47=1,"MATCH",IF(G47=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -5574,11 +5574,11 @@
         <v>1</v>
       </c>
       <c r="H48" t="str">
-        <f>+IF(G48=1,"MATCH",IF(G48=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -5601,11 +5601,11 @@
         <v>1</v>
       </c>
       <c r="H49" t="str">
-        <f>+IF(G49=1,"MATCH",IF(G49=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -5628,11 +5628,11 @@
         <v>1</v>
       </c>
       <c r="H50" t="str">
-        <f>+IF(G50=1,"MATCH",IF(G50=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -5655,11 +5655,11 @@
         <v>1</v>
       </c>
       <c r="H51" t="str">
-        <f>+IF(G51=1,"MATCH",IF(G51=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -5682,11 +5682,11 @@
         <v>1</v>
       </c>
       <c r="H52" t="str">
-        <f>+IF(G52=1,"MATCH",IF(G52=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -5709,11 +5709,11 @@
         <v>1</v>
       </c>
       <c r="H53" t="str">
-        <f>+IF(G53=1,"MATCH",IF(G53=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -5736,11 +5736,11 @@
         <v>1</v>
       </c>
       <c r="H54" t="str">
-        <f>+IF(G54=1,"MATCH",IF(G54=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -5763,11 +5763,11 @@
         <v>1</v>
       </c>
       <c r="H55" t="str">
-        <f>+IF(G55=1,"MATCH",IF(G55=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -5790,11 +5790,11 @@
         <v>1</v>
       </c>
       <c r="H56" t="str">
-        <f>+IF(G56=1,"MATCH",IF(G56=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -5817,11 +5817,11 @@
         <v>1</v>
       </c>
       <c r="H57" t="str">
-        <f>+IF(G57=1,"MATCH",IF(G57=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -5844,11 +5844,11 @@
         <v>1</v>
       </c>
       <c r="H58" t="str">
-        <f>+IF(G58=1,"MATCH",IF(G58=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>185</v>
       </c>
@@ -5871,11 +5871,11 @@
         <v>1</v>
       </c>
       <c r="H59" t="str">
-        <f>+IF(G59=1,"MATCH",IF(G59=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -5898,11 +5898,11 @@
         <v>1</v>
       </c>
       <c r="H60" t="str">
-        <f>+IF(G60=1,"MATCH",IF(G60=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>280</v>
       </c>
@@ -5925,11 +5925,11 @@
         <v>1</v>
       </c>
       <c r="H61" t="str">
-        <f>+IF(G61=1,"MATCH",IF(G61=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -5952,11 +5952,11 @@
         <v>1</v>
       </c>
       <c r="H62" t="str">
-        <f>+IF(G62=1,"MATCH",IF(G62=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -5979,11 +5979,11 @@
         <v>1</v>
       </c>
       <c r="H63" t="str">
-        <f>+IF(G63=1,"MATCH",IF(G63=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -6006,11 +6006,11 @@
         <v>1</v>
       </c>
       <c r="H64" t="str">
-        <f>+IF(G64=1,"MATCH",IF(G64=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -6033,11 +6033,11 @@
         <v>1</v>
       </c>
       <c r="H65" t="str">
-        <f>+IF(G65=1,"MATCH",IF(G65=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="1"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -6060,11 +6060,11 @@
         <v>1</v>
       </c>
       <c r="H66" t="str">
-        <f>+IF(G66=1,"MATCH",IF(G66=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" ref="H66:H97" si="2">+IF(G66=1,"MATCH",IF(G66=2,"VERIFY","NO MATCH"))</f>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>340</v>
       </c>
@@ -6087,11 +6087,11 @@
         <v>1</v>
       </c>
       <c r="H67" t="str">
-        <f>+IF(G67=1,"MATCH",IF(G67=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -6114,11 +6114,11 @@
         <v>1</v>
       </c>
       <c r="H68" t="str">
-        <f>+IF(G68=1,"MATCH",IF(G68=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -6141,11 +6141,11 @@
         <v>1</v>
       </c>
       <c r="H69" t="str">
-        <f>+IF(G69=1,"MATCH",IF(G69=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -6168,11 +6168,11 @@
         <v>1</v>
       </c>
       <c r="H70" t="str">
-        <f>+IF(G70=1,"MATCH",IF(G70=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -6195,11 +6195,11 @@
         <v>1</v>
       </c>
       <c r="H71" t="str">
-        <f>+IF(G71=1,"MATCH",IF(G71=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -6222,11 +6222,11 @@
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <f>+IF(G72=1,"MATCH",IF(G72=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -6249,11 +6249,11 @@
         <v>1</v>
       </c>
       <c r="H73" t="str">
-        <f>+IF(G73=1,"MATCH",IF(G73=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>259</v>
       </c>
@@ -6276,11 +6276,11 @@
         <v>1</v>
       </c>
       <c r="H74" t="str">
-        <f>+IF(G74=1,"MATCH",IF(G74=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>248</v>
       </c>
@@ -6303,11 +6303,11 @@
         <v>1</v>
       </c>
       <c r="H75" t="str">
-        <f>+IF(G75=1,"MATCH",IF(G75=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>MATCH</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6330,14 +6330,14 @@
         <v>2</v>
       </c>
       <c r="H76" t="str">
-        <f>+IF(G76=1,"MATCH",IF(G76=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>130</v>
       </c>
@@ -6360,14 +6360,14 @@
         <v>2</v>
       </c>
       <c r="H77" t="str">
-        <f>+IF(G77=1,"MATCH",IF(G77=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -6390,14 +6390,14 @@
         <v>2</v>
       </c>
       <c r="H78" t="str">
-        <f>+IF(G78=1,"MATCH",IF(G78=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>318</v>
       </c>
@@ -6420,14 +6420,14 @@
         <v>2</v>
       </c>
       <c r="H79" t="str">
-        <f>+IF(G79=1,"MATCH",IF(G79=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>276</v>
       </c>
@@ -6450,14 +6450,14 @@
         <v>2</v>
       </c>
       <c r="H80" t="str">
-        <f>+IF(G80=1,"MATCH",IF(G80=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -6480,14 +6480,14 @@
         <v>2</v>
       </c>
       <c r="H81" t="str">
-        <f>+IF(G81=1,"MATCH",IF(G81=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>335</v>
       </c>
@@ -6510,14 +6510,14 @@
         <v>2</v>
       </c>
       <c r="H82" t="str">
-        <f>+IF(G82=1,"MATCH",IF(G82=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -6540,14 +6540,14 @@
         <v>2</v>
       </c>
       <c r="H83" t="str">
-        <f>+IF(G83=1,"MATCH",IF(G83=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>271</v>
       </c>
@@ -6570,14 +6570,14 @@
         <v>2</v>
       </c>
       <c r="H84" t="str">
-        <f>+IF(G84=1,"MATCH",IF(G84=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>181</v>
       </c>
@@ -6600,14 +6600,14 @@
         <v>2</v>
       </c>
       <c r="H85" t="str">
-        <f>+IF(G85=1,"MATCH",IF(G85=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>302</v>
       </c>
@@ -6630,14 +6630,14 @@
         <v>2</v>
       </c>
       <c r="H86" t="str">
-        <f>+IF(G86=1,"MATCH",IF(G86=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -6660,14 +6660,14 @@
         <v>2</v>
       </c>
       <c r="H87" t="str">
-        <f>+IF(G87=1,"MATCH",IF(G87=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>240</v>
       </c>
@@ -6690,14 +6690,14 @@
         <v>2</v>
       </c>
       <c r="H88" t="str">
-        <f>+IF(G88=1,"MATCH",IF(G88=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -6720,14 +6720,14 @@
         <v>2</v>
       </c>
       <c r="H89" t="str">
-        <f>+IF(G89=1,"MATCH",IF(G89=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -6750,14 +6750,14 @@
         <v>2</v>
       </c>
       <c r="H90" t="str">
-        <f>+IF(G90=1,"MATCH",IF(G90=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -6780,14 +6780,14 @@
         <v>2</v>
       </c>
       <c r="H91" t="str">
-        <f>+IF(G91=1,"MATCH",IF(G91=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -6810,14 +6810,14 @@
         <v>2</v>
       </c>
       <c r="H92" t="str">
-        <f>+IF(G92=1,"MATCH",IF(G92=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -6840,14 +6840,14 @@
         <v>2</v>
       </c>
       <c r="H93" t="str">
-        <f>+IF(G93=1,"MATCH",IF(G93=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>245</v>
       </c>
@@ -6870,14 +6870,14 @@
         <v>2</v>
       </c>
       <c r="H94" t="str">
-        <f>+IF(G94=1,"MATCH",IF(G94=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -6900,14 +6900,14 @@
         <v>2</v>
       </c>
       <c r="H95" t="str">
-        <f>+IF(G95=1,"MATCH",IF(G95=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -6930,14 +6930,14 @@
         <v>2</v>
       </c>
       <c r="H96" t="str">
-        <f>+IF(G96=1,"MATCH",IF(G96=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>215</v>
       </c>
@@ -6960,14 +6960,14 @@
         <v>2</v>
       </c>
       <c r="H97" t="str">
-        <f>+IF(G97=1,"MATCH",IF(G97=2,"VERIFY","NO MATCH"))</f>
+        <f t="shared" si="2"/>
         <v>VERIFY</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -6990,11 +6990,11 @@
         <v>0</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ref="H66:H129" si="0">+IF(G98=1,"MATCH",IF(G98=2,"VERIFY","NO MATCH"))</f>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H98:H129" si="3">+IF(G98=1,"MATCH",IF(G98=2,"VERIFY","NO MATCH"))</f>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>318</v>
       </c>
@@ -7017,11 +7017,11 @@
         <v>0</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>331</v>
       </c>
@@ -7044,11 +7044,11 @@
         <v>0</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -7071,11 +7071,11 @@
         <v>0</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>313</v>
       </c>
@@ -7098,11 +7098,11 @@
         <v>0</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -7125,11 +7125,11 @@
         <v>0</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -7152,11 +7152,11 @@
         <v>0</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>336</v>
       </c>
@@ -7179,11 +7179,11 @@
         <v>0</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>337</v>
       </c>
@@ -7206,11 +7206,11 @@
         <v>0</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -7233,11 +7233,11 @@
         <v>0</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>265</v>
       </c>
@@ -7260,11 +7260,11 @@
         <v>0</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -7287,11 +7287,11 @@
         <v>0</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>338</v>
       </c>
@@ -7314,11 +7314,11 @@
         <v>0</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -7341,11 +7341,11 @@
         <v>0</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>244</v>
       </c>
@@ -7368,11 +7368,11 @@
         <v>0</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -7395,11 +7395,11 @@
         <v>0</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -7422,11 +7422,11 @@
         <v>0</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -7449,11 +7449,11 @@
         <v>0</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>266</v>
       </c>
@@ -7476,11 +7476,11 @@
         <v>0</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -7503,11 +7503,11 @@
         <v>0</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -7530,11 +7530,11 @@
         <v>0</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7557,11 +7557,11 @@
         <v>0</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -7584,11 +7584,11 @@
         <v>0</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>109</v>
       </c>
@@ -7611,11 +7611,11 @@
         <v>0</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>269</v>
       </c>
@@ -7638,11 +7638,11 @@
         <v>0</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -7665,11 +7665,11 @@
         <v>0</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>159</v>
       </c>
@@ -7692,11 +7692,11 @@
         <v>0</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>339</v>
       </c>
@@ -7719,11 +7719,11 @@
         <v>0</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>339</v>
       </c>
@@ -7746,11 +7746,11 @@
         <v>0</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -7773,11 +7773,11 @@
         <v>0</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>274</v>
       </c>
@@ -7800,11 +7800,11 @@
         <v>0</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>164</v>
       </c>
@@ -7827,11 +7827,11 @@
         <v>0</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="0"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>62</v>
       </c>
@@ -7854,11 +7854,11 @@
         <v>0</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H193" si="1">+IF(G130=1,"MATCH",IF(G130=2,"VERIFY","NO MATCH"))</f>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H130:H193" si="4">+IF(G130=1,"MATCH",IF(G130=2,"VERIFY","NO MATCH"))</f>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>107</v>
       </c>
@@ -7881,11 +7881,11 @@
         <v>0</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -7908,11 +7908,11 @@
         <v>0</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>281</v>
       </c>
@@ -7935,11 +7935,11 @@
         <v>0</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>287</v>
       </c>
@@ -7962,11 +7962,11 @@
         <v>0</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -7989,11 +7989,11 @@
         <v>0</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -8016,11 +8016,11 @@
         <v>0</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -8043,11 +8043,11 @@
         <v>0</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -8070,11 +8070,11 @@
         <v>0</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>188</v>
       </c>
@@ -8097,11 +8097,11 @@
         <v>0</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>46</v>
       </c>
@@ -8124,11 +8124,11 @@
         <v>0</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -8151,11 +8151,11 @@
         <v>0</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>221</v>
       </c>
@@ -8178,11 +8178,11 @@
         <v>0</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>254</v>
       </c>
@@ -8205,11 +8205,11 @@
         <v>0</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -8232,11 +8232,11 @@
         <v>0</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>176</v>
       </c>
@@ -8259,11 +8259,11 @@
         <v>0</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -8286,11 +8286,11 @@
         <v>0</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>126</v>
       </c>
@@ -8313,11 +8313,11 @@
         <v>0</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8340,11 +8340,11 @@
         <v>0</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -8367,11 +8367,11 @@
         <v>0</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>85</v>
       </c>
@@ -8394,11 +8394,11 @@
         <v>0</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -8421,11 +8421,11 @@
         <v>0</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>127</v>
       </c>
@@ -8448,11 +8448,11 @@
         <v>0</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>224</v>
       </c>
@@ -8475,11 +8475,11 @@
         <v>0</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>224</v>
       </c>
@@ -8502,11 +8502,11 @@
         <v>0</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>125</v>
       </c>
@@ -8529,11 +8529,11 @@
         <v>0</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>298</v>
       </c>
@@ -8556,11 +8556,11 @@
         <v>0</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>131</v>
       </c>
@@ -8583,11 +8583,11 @@
         <v>0</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>83</v>
       </c>
@@ -8610,11 +8610,11 @@
         <v>0</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -8637,11 +8637,11 @@
         <v>0</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>295</v>
       </c>
@@ -8664,11 +8664,11 @@
         <v>0</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -8691,11 +8691,11 @@
         <v>0</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -8718,11 +8718,11 @@
         <v>0</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>235</v>
       </c>
@@ -8745,11 +8745,11 @@
         <v>0</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>232</v>
       </c>
@@ -8772,11 +8772,11 @@
         <v>0</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -8799,11 +8799,11 @@
         <v>0</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -8826,11 +8826,11 @@
         <v>0</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>292</v>
       </c>
@@ -8853,11 +8853,11 @@
         <v>0</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>70</v>
       </c>
@@ -8880,11 +8880,11 @@
         <v>0</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>82</v>
       </c>
@@ -8907,11 +8907,11 @@
         <v>0</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>81</v>
       </c>
@@ -8934,11 +8934,11 @@
         <v>0</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>198</v>
       </c>
@@ -8961,11 +8961,11 @@
         <v>0</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -8988,11 +8988,11 @@
         <v>0</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -9015,11 +9015,11 @@
         <v>0</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>215</v>
       </c>
@@ -9042,11 +9042,11 @@
         <v>0</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>238</v>
       </c>
@@ -9069,11 +9069,11 @@
         <v>0</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>98</v>
       </c>
@@ -9096,11 +9096,11 @@
         <v>0</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>116</v>
       </c>
@@ -9123,11 +9123,11 @@
         <v>0</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>344</v>
       </c>
@@ -9150,11 +9150,11 @@
         <v>0</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>172</v>
       </c>
@@ -9177,11 +9177,11 @@
         <v>0</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -9204,11 +9204,11 @@
         <v>0</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>100</v>
       </c>
@@ -9231,11 +9231,11 @@
         <v>0</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>345</v>
       </c>
@@ -9258,11 +9258,11 @@
         <v>0</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>154</v>
       </c>
@@ -9285,11 +9285,11 @@
         <v>0</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>337</v>
       </c>
@@ -9312,11 +9312,11 @@
         <v>0</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>138</v>
       </c>
@@ -9339,11 +9339,11 @@
         <v>0</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -9366,11 +9366,11 @@
         <v>0</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>138</v>
       </c>
@@ -9393,11 +9393,11 @@
         <v>0</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>144</v>
       </c>
@@ -9420,11 +9420,11 @@
         <v>0</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>144</v>
       </c>
@@ -9447,11 +9447,11 @@
         <v>0</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -9474,11 +9474,11 @@
         <v>0</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>148</v>
       </c>
@@ -9501,11 +9501,11 @@
         <v>0</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>117</v>
       </c>
@@ -9528,11 +9528,11 @@
         <v>0</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>252</v>
       </c>
@@ -9555,11 +9555,11 @@
         <v>0</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="1"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -9582,11 +9582,11 @@
         <v>0</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ref="H194:H257" si="2">+IF(G194=1,"MATCH",IF(G194=2,"VERIFY","NO MATCH"))</f>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H194:H257" si="5">+IF(G194=1,"MATCH",IF(G194=2,"VERIFY","NO MATCH"))</f>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -9609,11 +9609,11 @@
         <v>0</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>148</v>
       </c>
@@ -9636,11 +9636,11 @@
         <v>0</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>148</v>
       </c>
@@ -9663,11 +9663,11 @@
         <v>0</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>138</v>
       </c>
@@ -9690,11 +9690,11 @@
         <v>0</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -9717,11 +9717,11 @@
         <v>0</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>144</v>
       </c>
@@ -9744,11 +9744,11 @@
         <v>0</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>148</v>
       </c>
@@ -9771,11 +9771,11 @@
         <v>0</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>117</v>
       </c>
@@ -9798,11 +9798,11 @@
         <v>0</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>117</v>
       </c>
@@ -9825,11 +9825,11 @@
         <v>0</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>117</v>
       </c>
@@ -9852,11 +9852,11 @@
         <v>0</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>127</v>
       </c>
@@ -9879,11 +9879,11 @@
         <v>0</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -9906,11 +9906,11 @@
         <v>0</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>243</v>
       </c>
@@ -9933,11 +9933,11 @@
         <v>0</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>286</v>
       </c>
@@ -9960,11 +9960,11 @@
         <v>0</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>183</v>
       </c>
@@ -9987,11 +9987,11 @@
         <v>0</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>310</v>
       </c>
@@ -10014,11 +10014,11 @@
         <v>0</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>314</v>
       </c>
@@ -10041,11 +10041,11 @@
         <v>0</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>237</v>
       </c>
@@ -10068,11 +10068,11 @@
         <v>0</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>235</v>
       </c>
@@ -10095,11 +10095,11 @@
         <v>0</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -10122,11 +10122,11 @@
         <v>0</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -10149,11 +10149,11 @@
         <v>0</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -10176,11 +10176,11 @@
         <v>0</v>
       </c>
       <c r="H216" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>51</v>
       </c>
@@ -10203,11 +10203,11 @@
         <v>0</v>
       </c>
       <c r="H217" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -10230,11 +10230,11 @@
         <v>0</v>
       </c>
       <c r="H218" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>81</v>
       </c>
@@ -10257,11 +10257,11 @@
         <v>0</v>
       </c>
       <c r="H219" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>90</v>
       </c>
@@ -10284,11 +10284,11 @@
         <v>0</v>
       </c>
       <c r="H220" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>109</v>
       </c>
@@ -10311,11 +10311,11 @@
         <v>0</v>
       </c>
       <c r="H221" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>309</v>
       </c>
@@ -10338,11 +10338,11 @@
         <v>0</v>
       </c>
       <c r="H222" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>162</v>
       </c>
@@ -10365,11 +10365,11 @@
         <v>0</v>
       </c>
       <c r="H223" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>219</v>
       </c>
@@ -10392,11 +10392,11 @@
         <v>0</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -10419,11 +10419,11 @@
         <v>0</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>243</v>
       </c>
@@ -10446,11 +10446,11 @@
         <v>0</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>249</v>
       </c>
@@ -10473,11 +10473,11 @@
         <v>0</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>260</v>
       </c>
@@ -10500,11 +10500,11 @@
         <v>0</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>346</v>
       </c>
@@ -10527,11 +10527,11 @@
         <v>0</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>207</v>
       </c>
@@ -10554,11 +10554,11 @@
         <v>0</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>220</v>
       </c>
@@ -10581,11 +10581,11 @@
         <v>0</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>218</v>
       </c>
@@ -10608,11 +10608,11 @@
         <v>0</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>111</v>
       </c>
@@ -10635,11 +10635,11 @@
         <v>0</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>336</v>
       </c>
@@ -10662,11 +10662,11 @@
         <v>0</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>306</v>
       </c>
@@ -10689,11 +10689,11 @@
         <v>0</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>348</v>
       </c>
@@ -10716,11 +10716,11 @@
         <v>0</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>349</v>
       </c>
@@ -10743,11 +10743,11 @@
         <v>0</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>315</v>
       </c>
@@ -10770,11 +10770,11 @@
         <v>0</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>70</v>
       </c>
@@ -10797,11 +10797,11 @@
         <v>0</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -10824,11 +10824,11 @@
         <v>0</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>323</v>
       </c>
@@ -10851,11 +10851,11 @@
         <v>0</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>110</v>
       </c>
@@ -10878,11 +10878,11 @@
         <v>0</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>270</v>
       </c>
@@ -10905,11 +10905,11 @@
         <v>0</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>350</v>
       </c>
@@ -10932,11 +10932,11 @@
         <v>0</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>285</v>
       </c>
@@ -10959,11 +10959,11 @@
         <v>0</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>237</v>
       </c>
@@ -10986,11 +10986,11 @@
         <v>0</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>143</v>
       </c>
@@ -11013,11 +11013,11 @@
         <v>0</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>80</v>
       </c>
@@ -11040,11 +11040,11 @@
         <v>0</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>277</v>
       </c>
@@ -11067,11 +11067,11 @@
         <v>0</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>160</v>
       </c>
@@ -11094,11 +11094,11 @@
         <v>0</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>124</v>
       </c>
@@ -11121,11 +11121,11 @@
         <v>0</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -11148,11 +11148,11 @@
         <v>0</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>31</v>
       </c>
@@ -11175,11 +11175,11 @@
         <v>0</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>61</v>
       </c>
@@ -11202,11 +11202,11 @@
         <v>0</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>184</v>
       </c>
@@ -11229,11 +11229,11 @@
         <v>0</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>189</v>
       </c>
@@ -11256,11 +11256,11 @@
         <v>0</v>
       </c>
       <c r="H256" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>195</v>
       </c>
@@ -11283,11 +11283,11 @@
         <v>0</v>
       </c>
       <c r="H257" t="str">
-        <f t="shared" si="2"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>212</v>
       </c>
@@ -11310,11 +11310,11 @@
         <v>0</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H295" si="3">+IF(G258=1,"MATCH",IF(G258=2,"VERIFY","NO MATCH"))</f>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H258:H295" si="6">+IF(G258=1,"MATCH",IF(G258=2,"VERIFY","NO MATCH"))</f>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>251</v>
       </c>
@@ -11337,11 +11337,11 @@
         <v>0</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -11364,11 +11364,11 @@
         <v>0</v>
       </c>
       <c r="H260" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>311</v>
       </c>
@@ -11391,11 +11391,11 @@
         <v>0</v>
       </c>
       <c r="H261" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>235</v>
       </c>
@@ -11418,11 +11418,11 @@
         <v>0</v>
       </c>
       <c r="H262" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>145</v>
       </c>
@@ -11445,11 +11445,11 @@
         <v>0</v>
       </c>
       <c r="H263" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>349</v>
       </c>
@@ -11472,11 +11472,11 @@
         <v>0</v>
       </c>
       <c r="H264" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>317</v>
       </c>
@@ -11499,11 +11499,11 @@
         <v>0</v>
       </c>
       <c r="H265" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>244</v>
       </c>
@@ -11526,11 +11526,11 @@
         <v>0</v>
       </c>
       <c r="H266" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>73</v>
       </c>
@@ -11553,11 +11553,11 @@
         <v>0</v>
       </c>
       <c r="H267" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>194</v>
       </c>
@@ -11580,11 +11580,11 @@
         <v>0</v>
       </c>
       <c r="H268" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>73</v>
       </c>
@@ -11607,11 +11607,11 @@
         <v>0</v>
       </c>
       <c r="H269" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -11634,11 +11634,11 @@
         <v>0</v>
       </c>
       <c r="H270" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>145</v>
       </c>
@@ -11661,11 +11661,11 @@
         <v>0</v>
       </c>
       <c r="H271" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>145</v>
       </c>
@@ -11688,11 +11688,11 @@
         <v>0</v>
       </c>
       <c r="H272" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>59</v>
       </c>
@@ -11715,11 +11715,11 @@
         <v>0</v>
       </c>
       <c r="H273" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>96</v>
       </c>
@@ -11742,11 +11742,11 @@
         <v>0</v>
       </c>
       <c r="H274" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>193</v>
       </c>
@@ -11769,11 +11769,11 @@
         <v>0</v>
       </c>
       <c r="H275" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>62</v>
       </c>
@@ -11796,11 +11796,11 @@
         <v>0</v>
       </c>
       <c r="H276" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>317</v>
       </c>
@@ -11823,11 +11823,11 @@
         <v>0</v>
       </c>
       <c r="H277" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>263</v>
       </c>
@@ -11850,11 +11850,11 @@
         <v>0</v>
       </c>
       <c r="H278" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>158</v>
       </c>
@@ -11877,11 +11877,11 @@
         <v>0</v>
       </c>
       <c r="H279" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>123</v>
       </c>
@@ -11904,11 +11904,11 @@
         <v>0</v>
       </c>
       <c r="H280" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>145</v>
       </c>
@@ -11931,11 +11931,11 @@
         <v>0</v>
       </c>
       <c r="H281" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>62</v>
       </c>
@@ -11958,11 +11958,11 @@
         <v>0</v>
       </c>
       <c r="H282" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>62</v>
       </c>
@@ -11985,11 +11985,11 @@
         <v>0</v>
       </c>
       <c r="H283" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>146</v>
       </c>
@@ -12012,11 +12012,11 @@
         <v>0</v>
       </c>
       <c r="H284" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>210</v>
       </c>
@@ -12039,11 +12039,11 @@
         <v>0</v>
       </c>
       <c r="H285" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>321</v>
       </c>
@@ -12066,11 +12066,11 @@
         <v>0</v>
       </c>
       <c r="H286" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>179</v>
       </c>
@@ -12093,11 +12093,11 @@
         <v>0</v>
       </c>
       <c r="H287" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>352</v>
       </c>
@@ -12120,11 +12120,11 @@
         <v>0</v>
       </c>
       <c r="H288" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>353</v>
       </c>
@@ -12147,11 +12147,11 @@
         <v>0</v>
       </c>
       <c r="H289" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>354</v>
       </c>
@@ -12174,11 +12174,11 @@
         <v>0</v>
       </c>
       <c r="H290" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>355</v>
       </c>
@@ -12201,11 +12201,11 @@
         <v>0</v>
       </c>
       <c r="H291" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>308</v>
       </c>
@@ -12228,11 +12228,11 @@
         <v>0</v>
       </c>
       <c r="H292" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>313</v>
       </c>
@@ -12255,11 +12255,11 @@
         <v>0</v>
       </c>
       <c r="H293" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>107</v>
       </c>
@@ -12282,11 +12282,11 @@
         <v>0</v>
       </c>
       <c r="H294" t="str">
-        <f t="shared" si="3"/>
-        <v>NO MATCH</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>NO MATCH</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>247</v>
       </c>
@@ -12309,18 +12309,12 @@
         <v>0</v>
       </c>
       <c r="H295" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>NO MATCH</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I295" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CAISSE DESJARDINS RICHELIEU SAINT MATHIAS"/>
-        <filter val="CAISSE DESJARDINS SAINT MATHIAS"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="MATCH"/>
@@ -12343,13 +12337,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>356</v>
       </c>
@@ -12357,7 +12351,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -12365,7 +12359,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -12373,7 +12367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -12381,7 +12375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>357</v>
       </c>
